--- a/biology/Zoologie/Eusynthemis/Eusynthemis.xlsx
+++ b/biology/Zoologie/Eusynthemis/Eusynthemis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eusynthemis est un genre de libellules de la famille des Synthemistidae (sous-ordre des Anisoptères, ordre des Odonates)[2]. 
-Les espèces de ce genre se rencontrent en Australie, hormis Eusynthemis guttata qui est mentionnée aux îles Salomon[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eusynthemis est un genre de libellules de la famille des Synthemistidae (sous-ordre des Anisoptères, ordre des Odonates). 
+Les espèces de ce genre se rencontrent en Australie, hormis Eusynthemis guttata qui est mentionnée aux îles Salomon.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Eusynthemis a été créé en 1903 par le botaniste et entomologiste allemand Friedrich Förster (d)[4] (1865–1918) avec pour espèce type Eusynthemis brevistyla et initialement comme un sous-genre du genre Synthemis[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Eusynthemis a été créé en 1903 par le botaniste et entomologiste allemand Friedrich Förster (d) (1865–1918) avec pour espèce type Eusynthemis brevistyla et initialement comme un sous-genre du genre Synthemis.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (25 avril 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (25 avril 2022) :
 Eusynthemis aurolineata (Tillyard, 1913)
 Eusynthemis barbarae (Moulds, 1985)
-Eusynthemis brevistyla (Selys, 1871) - espèce type[4]
+Eusynthemis brevistyla (Selys, 1871) - espèce type
 Eusynthemis cooloola Theischinger, 2018
 Eusynthemis deniseae Theischinger, 1977
 Eusynthemis frontalis Lieftinck, 1949
@@ -588,7 +604,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) F. Förster, « Odonaten aus Neu-Guinea III », Annales Historico-Naturales Musei Nationalis Hungarici, Budapest, Musée national hongrois, vol. 1,‎ 1903, p. 509-554 (ISSN 0521-4726 et 0521-4726, lire en ligne)</t>
         </is>
